--- a/assets/test/TaiHang/result/indices.xlsx
+++ b/assets/test/TaiHang/result/indices.xlsx
@@ -91,7 +91,7 @@
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -141,10 +141,10 @@
         <v>2.1095154285430908</v>
       </c>
       <c r="G2" s="0">
-        <v>2.7277562618255615</v>
+        <v>0.29551884531974792</v>
       </c>
       <c r="H2" s="0">
-        <v>2.1666667461395264</v>
+        <v>1.8333333730697632</v>
       </c>
     </row>
     <row r="3">
@@ -167,10 +167,10 @@
         <v>0.94329321384429932</v>
       </c>
       <c r="G3" s="0">
-        <v>3.865342378616333</v>
+        <v>0.35307338833808899</v>
       </c>
       <c r="H3" s="0">
-        <v>2.5</v>
+        <v>2.1666667461395264</v>
       </c>
     </row>
   </sheetData>

--- a/assets/test/TaiHang/result/indices.xlsx
+++ b/assets/test/TaiHang/result/indices.xlsx
@@ -91,7 +91,7 @@
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -141,10 +141,10 @@
         <v>2.1095154285430908</v>
       </c>
       <c r="G2" s="0">
-        <v>0.29551884531974792</v>
+        <v>2.955188512802124</v>
       </c>
       <c r="H2" s="0">
-        <v>1.8333333730697632</v>
+        <v>2.1666667461395264</v>
       </c>
     </row>
     <row r="3">
@@ -167,10 +167,10 @@
         <v>0.94329321384429932</v>
       </c>
       <c r="G3" s="0">
-        <v>0.35307338833808899</v>
+        <v>3.530733585357666</v>
       </c>
       <c r="H3" s="0">
-        <v>2.1666667461395264</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/test/TaiHang/result/indices.xlsx
+++ b/assets/test/TaiHang/result/indices.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="true"/>
@@ -90,8 +90,8 @@
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -123,54 +123,132 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0">
-        <v>0.52050203084945679</v>
+        <v>0.50477498769760132</v>
       </c>
       <c r="C2" s="0">
-        <v>4.7242293357849121</v>
+        <v>4.0125675201416016</v>
       </c>
       <c r="D2" s="0">
-        <v>0.63491606712341309</v>
+        <v>0.68595951795578003</v>
       </c>
       <c r="E2" s="0">
-        <v>52.935226440429688</v>
+        <v>42.835582733154297</v>
       </c>
       <c r="F2" s="0">
-        <v>2.1095154285430908</v>
+        <v>1.6850883960723877</v>
       </c>
       <c r="G2" s="0">
-        <v>2.955188512802124</v>
+        <v>0.46700215339660645</v>
       </c>
       <c r="H2" s="0">
-        <v>2.1666667461395264</v>
+        <v>1.8333333730697632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.52050203084945679</v>
+      </c>
+      <c r="C3" s="0">
+        <v>4.7242293357849121</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.63491606712341309</v>
+      </c>
+      <c r="E3" s="0">
+        <v>52.935226440429688</v>
+      </c>
+      <c r="F3" s="0">
+        <v>2.1095154285430908</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.42300406098365784</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1.8333333730697632</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>27</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B4" s="0">
         <v>0.45799574255943298</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C4" s="0">
         <v>4.2539114952087402</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D4" s="0">
         <v>0.98669934272766113</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E4" s="0">
         <v>44.322608947753906</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F4" s="0">
         <v>0.94329321384429932</v>
       </c>
-      <c r="G3" s="0">
-        <v>3.530733585357666</v>
-      </c>
-      <c r="H3" s="0">
+      <c r="G4" s="0">
+        <v>-1.5810253620147705</v>
+      </c>
+      <c r="H4" s="0">
+        <v>2.1666667461395264</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.36639127135276794</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3.1820199489593506</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.83416032791137695</v>
+      </c>
+      <c r="E5" s="0">
+        <v>53.567928314208984</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1.2125916481018066</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.85809117555618286</v>
+      </c>
+      <c r="H5" s="0">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>169</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.32415914535522461</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2.8302912712097168</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1.002282977104187</v>
+      </c>
+      <c r="E6" s="0">
+        <v>46.786788940429688</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.84368753433227539</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1.5863173007965088</v>
+      </c>
+      <c r="H6" s="0">
+        <v>2.8333332538604736</v>
       </c>
     </row>
   </sheetData>
